--- a/Project Documents/Pin Map.xlsx
+++ b/Project Documents/Pin Map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ave\Desktop\ENEL 387\Project\Project Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F0E876C-6A68-40C7-920B-44EBEA098DAD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3489C781-693E-4EAF-8BE0-41502623DA54}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2124" yWindow="372" windowWidth="17280" windowHeight="8964" xr2:uid="{38764A98-D9CF-4EF4-A021-D9D79BCE8DF6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{38764A98-D9CF-4EF4-A021-D9D79BCE8DF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -812,8 +812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82F701A9-119F-4A16-80FD-E75F66C4A01E}">
   <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:J4"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -896,17 +896,15 @@
       <c r="E3" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>59</v>
-      </c>
+      <c r="G3" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="H3" s="5"/>
       <c r="I3" s="10" t="str">
-        <f t="shared" ref="I3:I10" si="0">IF(EXACT(B3,G3), "Unchanged", "Changed")</f>
+        <f>IF(EXACT(B3,G30), "Unchanged", "Changed")</f>
         <v>Changed</v>
       </c>
     </row>
@@ -933,7 +931,7 @@
         <v>60</v>
       </c>
       <c r="I4" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="I3:I10" si="0">IF(EXACT(B4,G4), "Unchanged", "Changed")</f>
         <v>Changed</v>
       </c>
       <c r="J4" s="5"/>
@@ -1355,13 +1353,13 @@
         <v>19</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>93</v>
       </c>
       <c r="I21" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(EXACT(B21,G24), "Unchanged", "Changed")</f>
         <v>Unchanged</v>
       </c>
     </row>
@@ -1379,13 +1377,13 @@
         <v>20</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>93</v>
       </c>
       <c r="I22" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(EXACT(B22,G25), "Unchanged", "Changed")</f>
         <v>Changed</v>
       </c>
     </row>
@@ -1427,13 +1425,13 @@
         <v>22</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>59</v>
       </c>
       <c r="I24" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(EXACT(B24,G21), "Unchanged", "Changed")</f>
         <v>Changed</v>
       </c>
     </row>
@@ -1454,13 +1452,13 @@
         <v>23</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>59</v>
       </c>
       <c r="I25" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(EXACT(B25,G22), "Unchanged", "Changed")</f>
         <v>Changed</v>
       </c>
     </row>
@@ -1481,13 +1479,13 @@
         <v>24</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>59</v>
       </c>
       <c r="I26" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(EXACT(B26,G28), "Unchanged", "Changed")</f>
         <v>Unchanged</v>
       </c>
     </row>
@@ -1508,13 +1506,13 @@
         <v>25</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>59</v>
       </c>
       <c r="I27" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(EXACT(B27,G29), "Unchanged", "Changed")</f>
         <v>Unchanged</v>
       </c>
     </row>
@@ -1532,13 +1530,13 @@
         <v>26</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>93</v>
       </c>
       <c r="I28" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(EXACT(B28,G26), "Unchanged", "Changed")</f>
         <v>Unchanged</v>
       </c>
     </row>
@@ -1556,13 +1554,13 @@
         <v>27</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>93</v>
       </c>
       <c r="I29" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(EXACT(B29,G27), "Unchanged", "Changed")</f>
         <v>Changed</v>
       </c>
     </row>
@@ -1576,15 +1574,17 @@
       <c r="C30" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="F30" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G30" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="H30" s="5"/>
+      <c r="G30" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="I30" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(EXACT(B30,G28), "Unchanged", "Changed")</f>
         <v>Changed</v>
       </c>
     </row>
@@ -1605,13 +1605,13 @@
         <v>29</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H31" s="3" t="s">
         <v>59</v>
       </c>
       <c r="I31" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(EXACT(B31,G33), "Unchanged", "Changed")</f>
         <v>Changed</v>
       </c>
     </row>
@@ -1632,13 +1632,13 @@
         <v>30</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>59</v>
       </c>
       <c r="I32" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(EXACT(B32,G31), "Unchanged", "Changed")</f>
         <v>Unchanged</v>
       </c>
     </row>
@@ -1659,13 +1659,13 @@
         <v>31</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>59</v>
       </c>
       <c r="I33" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(EXACT(B33,G32), "Unchanged", "Changed")</f>
         <v>Unchanged</v>
       </c>
     </row>
